--- a/src/test/resources/excelFiles/Assignment4.xlsx
+++ b/src/test/resources/excelFiles/Assignment4.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="169">
   <si>
     <t>testCase</t>
   </si>
@@ -519,9 +519,6 @@
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>when p is removed from roducts</t>
   </si>
   <si>
     <t>when is capitalised in products(Products)</t>
@@ -2321,7 +2318,7 @@
         <v>163</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>162</v>
@@ -2335,86 +2332,69 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="D3" s="1">
         <v>404.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D4" s="1">
         <v>404.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1">
         <v>404.0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>169</v>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1">
         <v>404.0</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1">
-        <v>404.0</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2425,9 +2405,8 @@
     <hyperlink r:id="rId3" ref="B4"/>
     <hyperlink r:id="rId4" ref="B5"/>
     <hyperlink r:id="rId5" ref="B6"/>
-    <hyperlink r:id="rId6" ref="B7"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
